--- a/results/benchmark.xlsx
+++ b/results/benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slanyel/PycharmProjects/binary-tabular-caipi/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slanyel/PycharmProjects/MathematicalDynamicsXIML/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D1009-5829-D94B-98C2-7424CFC83845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C76E56-CB48-0343-85FE-6CB22A50DAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55240" yWindow="500" windowWidth="19000" windowHeight="21100" xr2:uid="{CE09ABF2-2148-1E40-882D-5C3427A751E0}"/>
+    <workbookView xWindow="55240" yWindow="-940" windowWidth="19000" windowHeight="21100" xr2:uid="{CE09ABF2-2148-1E40-882D-5C3427A751E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>experiment</t>
   </si>
@@ -114,21 +114,6 @@
   </si>
   <si>
     <t>heart_420000</t>
-  </si>
-  <si>
-    <t>mushrooms_42</t>
-  </si>
-  <si>
-    <t>mushrooms_420</t>
-  </si>
-  <si>
-    <t>mushrooms_4200</t>
-  </si>
-  <si>
-    <t>mushrooms_42000</t>
-  </si>
-  <si>
-    <t>mushrooms_420000</t>
   </si>
   <si>
     <t>corr_ces_eg</t>
@@ -196,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -342,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BE83AE-610E-E845-8555-EB417615ABC6}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1048,136 +1033,6 @@
       </c>
       <c r="H21">
         <v>0.18920000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.1132</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.1489</v>
-      </c>
-      <c r="H23">
-        <v>1.89E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.30909999999999999</v>
-      </c>
-      <c r="H25">
-        <v>2.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
